--- a/C00KSI_0510/C00KSI_Gyak12.xlsx
+++ b/C00KSI_0510/C00KSI_Gyak12.xlsx
@@ -14,7 +14,6 @@
   <sheets>
     <sheet name="Feladat 1" sheetId="1" r:id="rId1"/>
     <sheet name="Feladat 2" sheetId="3" r:id="rId2"/>
-    <sheet name="Munka2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -279,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -311,6 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -591,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V66"/>
+  <dimension ref="B1:V67"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V64" sqref="V64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2482,21 +2482,51 @@
       <c r="G51" s="17">
         <v>4</v>
       </c>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="20"/>
+      <c r="H51" s="17">
+        <v>4</v>
+      </c>
+      <c r="I51" s="17">
+        <v>4</v>
+      </c>
+      <c r="J51" s="18">
+        <v>2</v>
+      </c>
+      <c r="K51" s="17">
+        <v>2</v>
+      </c>
+      <c r="L51" s="17">
+        <v>2</v>
+      </c>
+      <c r="M51" s="17">
+        <v>2</v>
+      </c>
+      <c r="N51" s="18">
+        <v>5</v>
+      </c>
+      <c r="O51" s="17">
+        <v>5</v>
+      </c>
+      <c r="P51" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q51" s="17">
+        <v>5</v>
+      </c>
+      <c r="R51" s="18">
+        <v>6</v>
+      </c>
+      <c r="S51" s="17">
+        <v>6</v>
+      </c>
+      <c r="T51" s="17">
+        <v>6</v>
+      </c>
+      <c r="U51" s="17">
+        <v>6</v>
+      </c>
+      <c r="V51" s="31">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
@@ -2515,21 +2545,51 @@
       <c r="G52" s="17">
         <v>6</v>
       </c>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="22"/>
+      <c r="H52" s="28">
+        <v>7</v>
+      </c>
+      <c r="I52" s="21">
+        <v>7</v>
+      </c>
+      <c r="J52" s="17">
+        <v>7</v>
+      </c>
+      <c r="K52" s="28">
+        <v>6</v>
+      </c>
+      <c r="L52" s="21">
+        <v>6</v>
+      </c>
+      <c r="M52" s="17">
+        <v>6</v>
+      </c>
+      <c r="N52" s="21">
+        <v>6</v>
+      </c>
+      <c r="O52" s="28">
+        <v>1</v>
+      </c>
+      <c r="P52" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="21">
+        <v>1</v>
+      </c>
+      <c r="R52" s="21">
+        <v>1</v>
+      </c>
+      <c r="S52" s="18">
+        <v>7</v>
+      </c>
+      <c r="T52" s="21">
+        <v>7</v>
+      </c>
+      <c r="U52" s="21">
+        <v>7</v>
+      </c>
+      <c r="V52" s="22">
+        <v>7</v>
+      </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
@@ -2548,21 +2608,51 @@
       <c r="G53" s="21">
         <v>5</v>
       </c>
-      <c r="H53" s="17"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="23"/>
+      <c r="H53" s="17">
+        <v>5</v>
+      </c>
+      <c r="I53" s="28">
+        <v>3</v>
+      </c>
+      <c r="J53" s="21">
+        <v>3</v>
+      </c>
+      <c r="K53" s="17">
+        <v>3</v>
+      </c>
+      <c r="L53" s="21">
+        <v>7</v>
+      </c>
+      <c r="M53" s="21">
+        <v>7</v>
+      </c>
+      <c r="N53" s="17">
+        <v>7</v>
+      </c>
+      <c r="O53" s="21">
+        <v>7</v>
+      </c>
+      <c r="P53" s="28">
+        <v>2</v>
+      </c>
+      <c r="Q53" s="17">
+        <v>2</v>
+      </c>
+      <c r="R53" s="21">
+        <v>2</v>
+      </c>
+      <c r="S53" s="21">
+        <v>2</v>
+      </c>
+      <c r="T53" s="17">
+        <v>2</v>
+      </c>
+      <c r="U53" s="28">
+        <v>5</v>
+      </c>
+      <c r="V53" s="23">
+        <v>5</v>
+      </c>
     </row>
     <row r="54" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
@@ -2583,21 +2673,51 @@
       <c r="G54" s="24">
         <v>0</v>
       </c>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="24"/>
-      <c r="T54" s="24"/>
-      <c r="U54" s="24"/>
-      <c r="V54" s="25"/>
+      <c r="H54" s="24">
+        <v>1</v>
+      </c>
+      <c r="I54" s="24">
+        <v>1</v>
+      </c>
+      <c r="J54" s="24">
+        <v>1</v>
+      </c>
+      <c r="K54" s="24">
+        <v>1</v>
+      </c>
+      <c r="L54" s="24">
+        <v>1</v>
+      </c>
+      <c r="M54" s="24">
+        <v>0</v>
+      </c>
+      <c r="N54" s="24">
+        <v>1</v>
+      </c>
+      <c r="O54" s="24">
+        <v>1</v>
+      </c>
+      <c r="P54" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="24">
+        <v>0</v>
+      </c>
+      <c r="R54" s="24">
+        <v>1</v>
+      </c>
+      <c r="S54" s="24">
+        <v>1</v>
+      </c>
+      <c r="T54" s="24">
+        <v>0</v>
+      </c>
+      <c r="U54" s="24">
+        <v>1</v>
+      </c>
+      <c r="V54" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
@@ -2605,7 +2725,7 @@
       </c>
       <c r="C55">
         <f>SUM(C54:V54)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
@@ -2623,6 +2743,48 @@
       </c>
       <c r="G56">
         <v>654</v>
+      </c>
+      <c r="H56">
+        <v>547</v>
+      </c>
+      <c r="I56">
+        <v>473</v>
+      </c>
+      <c r="J56">
+        <v>732</v>
+      </c>
+      <c r="K56">
+        <v>326</v>
+      </c>
+      <c r="L56">
+        <v>267</v>
+      </c>
+      <c r="M56">
+        <v>267</v>
+      </c>
+      <c r="N56">
+        <v>675</v>
+      </c>
+      <c r="O56">
+        <v>751</v>
+      </c>
+      <c r="P56">
+        <v>512</v>
+      </c>
+      <c r="Q56">
+        <v>512</v>
+      </c>
+      <c r="R56">
+        <v>126</v>
+      </c>
+      <c r="S56">
+        <v>267</v>
+      </c>
+      <c r="T56">
+        <v>267</v>
+      </c>
+      <c r="U56">
+        <v>675</v>
       </c>
     </row>
     <row r="58" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2782,22 +2944,54 @@
       <c r="F61" s="11">
         <v>7</v>
       </c>
-      <c r="G61" s="17"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="26"/>
-      <c r="R61" s="26"/>
-      <c r="S61" s="17"/>
-      <c r="T61" s="26"/>
-      <c r="U61" s="26"/>
-      <c r="V61" s="27"/>
+      <c r="G61" s="17">
+        <v>7</v>
+      </c>
+      <c r="H61" s="26">
+        <v>7</v>
+      </c>
+      <c r="I61" s="30">
+        <v>3</v>
+      </c>
+      <c r="J61" s="26">
+        <v>3</v>
+      </c>
+      <c r="K61" s="17">
+        <v>3</v>
+      </c>
+      <c r="L61" s="26">
+        <v>3</v>
+      </c>
+      <c r="M61" s="26">
+        <v>3</v>
+      </c>
+      <c r="N61" s="30">
+        <v>5</v>
+      </c>
+      <c r="O61" s="17">
+        <v>5</v>
+      </c>
+      <c r="P61" s="26">
+        <v>5</v>
+      </c>
+      <c r="Q61" s="26">
+        <v>5</v>
+      </c>
+      <c r="R61" s="26">
+        <v>5</v>
+      </c>
+      <c r="S61" s="18">
+        <v>7</v>
+      </c>
+      <c r="T61" s="26">
+        <v>7</v>
+      </c>
+      <c r="U61" s="26">
+        <v>7</v>
+      </c>
+      <c r="V61" s="27">
+        <v>7</v>
+      </c>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
@@ -2813,22 +3007,54 @@
       <c r="F62" s="5">
         <v>6</v>
       </c>
-      <c r="G62" s="21"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="21"/>
-      <c r="T62" s="17"/>
-      <c r="U62" s="21"/>
-      <c r="V62" s="23"/>
+      <c r="G62" s="21">
+        <v>6</v>
+      </c>
+      <c r="H62" s="17">
+        <v>6</v>
+      </c>
+      <c r="I62" s="21">
+        <v>6</v>
+      </c>
+      <c r="J62" s="28">
+        <v>2</v>
+      </c>
+      <c r="K62" s="21">
+        <v>2</v>
+      </c>
+      <c r="L62" s="17">
+        <v>2</v>
+      </c>
+      <c r="M62" s="21">
+        <v>2</v>
+      </c>
+      <c r="N62" s="21">
+        <v>2</v>
+      </c>
+      <c r="O62" s="28">
+        <v>1</v>
+      </c>
+      <c r="P62" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="21">
+        <v>1</v>
+      </c>
+      <c r="R62" s="21">
+        <v>1</v>
+      </c>
+      <c r="S62" s="21">
+        <v>1</v>
+      </c>
+      <c r="T62" s="17">
+        <v>1</v>
+      </c>
+      <c r="U62" s="21">
+        <v>5</v>
+      </c>
+      <c r="V62" s="23">
+        <v>5</v>
+      </c>
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
@@ -2844,22 +3070,54 @@
       <c r="F63" s="5">
         <v>5</v>
       </c>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="21"/>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="21"/>
-      <c r="T63" s="21"/>
-      <c r="U63" s="17"/>
-      <c r="V63" s="23"/>
+      <c r="G63" s="21">
+        <v>5</v>
+      </c>
+      <c r="H63" s="21">
+        <v>5</v>
+      </c>
+      <c r="I63" s="17">
+        <v>5</v>
+      </c>
+      <c r="J63" s="21">
+        <v>5</v>
+      </c>
+      <c r="K63" s="28">
+        <v>6</v>
+      </c>
+      <c r="L63" s="21">
+        <v>6</v>
+      </c>
+      <c r="M63" s="17">
+        <v>6</v>
+      </c>
+      <c r="N63" s="21">
+        <v>6</v>
+      </c>
+      <c r="O63" s="21">
+        <v>6</v>
+      </c>
+      <c r="P63" s="28">
+        <v>2</v>
+      </c>
+      <c r="Q63" s="17">
+        <v>2</v>
+      </c>
+      <c r="R63" s="21">
+        <v>2</v>
+      </c>
+      <c r="S63" s="21">
+        <v>2</v>
+      </c>
+      <c r="T63" s="21">
+        <v>2</v>
+      </c>
+      <c r="U63" s="17">
+        <v>2</v>
+      </c>
+      <c r="V63" s="23">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
@@ -2875,22 +3133,54 @@
       <c r="F64" s="18">
         <v>4</v>
       </c>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="21"/>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="21"/>
-      <c r="T64" s="21"/>
-      <c r="U64" s="21"/>
-      <c r="V64" s="17"/>
+      <c r="G64" s="21">
+        <v>4</v>
+      </c>
+      <c r="H64" s="21">
+        <v>4</v>
+      </c>
+      <c r="I64" s="21">
+        <v>4</v>
+      </c>
+      <c r="J64" s="17">
+        <v>4</v>
+      </c>
+      <c r="K64" s="21">
+        <v>4</v>
+      </c>
+      <c r="L64" s="28">
+        <v>7</v>
+      </c>
+      <c r="M64" s="21">
+        <v>7</v>
+      </c>
+      <c r="N64" s="17">
+        <v>7</v>
+      </c>
+      <c r="O64" s="21">
+        <v>7</v>
+      </c>
+      <c r="P64" s="21">
+        <v>7</v>
+      </c>
+      <c r="Q64" s="21">
+        <v>7</v>
+      </c>
+      <c r="R64" s="18">
+        <v>6</v>
+      </c>
+      <c r="S64" s="21">
+        <v>6</v>
+      </c>
+      <c r="T64" s="21">
+        <v>6</v>
+      </c>
+      <c r="U64" s="21">
+        <v>6</v>
+      </c>
+      <c r="V64" s="17">
+        <v>6</v>
+      </c>
     </row>
     <row r="65" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
@@ -2908,22 +3198,54 @@
       <c r="F65" s="8">
         <v>1</v>
       </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="9"/>
+      <c r="G65" s="8">
+        <v>0</v>
+      </c>
+      <c r="H65" s="8">
+        <v>0</v>
+      </c>
+      <c r="I65" s="8">
+        <v>1</v>
+      </c>
+      <c r="J65" s="8">
+        <v>1</v>
+      </c>
+      <c r="K65" s="8">
+        <v>1</v>
+      </c>
+      <c r="L65" s="8">
+        <v>1</v>
+      </c>
+      <c r="M65" s="8">
+        <v>0</v>
+      </c>
+      <c r="N65" s="8">
+        <v>1</v>
+      </c>
+      <c r="O65" s="8">
+        <v>1</v>
+      </c>
+      <c r="P65" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="8">
+        <v>0</v>
+      </c>
+      <c r="R65" s="8">
+        <v>1</v>
+      </c>
+      <c r="S65" s="8">
+        <v>1</v>
+      </c>
+      <c r="T65" s="8">
+        <v>0</v>
+      </c>
+      <c r="U65" s="8">
+        <v>1</v>
+      </c>
+      <c r="V65" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
@@ -2931,7 +3253,69 @@
       </c>
       <c r="C66">
         <f>SUM(C65:V65)</f>
-        <v>4</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>7</v>
+      </c>
+      <c r="D67">
+        <v>76</v>
+      </c>
+      <c r="E67">
+        <v>765</v>
+      </c>
+      <c r="F67">
+        <v>7654</v>
+      </c>
+      <c r="G67">
+        <v>7654</v>
+      </c>
+      <c r="H67">
+        <v>7654</v>
+      </c>
+      <c r="I67">
+        <v>6543</v>
+      </c>
+      <c r="J67">
+        <v>5432</v>
+      </c>
+      <c r="K67">
+        <v>4326</v>
+      </c>
+      <c r="L67">
+        <v>3267</v>
+      </c>
+      <c r="M67">
+        <v>3267</v>
+      </c>
+      <c r="N67">
+        <v>2675</v>
+      </c>
+      <c r="O67">
+        <v>6751</v>
+      </c>
+      <c r="P67">
+        <v>7512</v>
+      </c>
+      <c r="Q67">
+        <v>7512</v>
+      </c>
+      <c r="R67">
+        <v>5126</v>
+      </c>
+      <c r="S67">
+        <v>1267</v>
+      </c>
+      <c r="T67">
+        <v>1267</v>
+      </c>
+      <c r="U67">
+        <v>2675</v>
+      </c>
+      <c r="V67">
+        <v>2675</v>
       </c>
     </row>
   </sheetData>
@@ -2944,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="V47" sqref="V47"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="V66" sqref="V66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4848,97 +5232,257 @@
       <c r="B51" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="20"/>
+      <c r="C51" s="18">
+        <v>5</v>
+      </c>
+      <c r="D51" s="11">
+        <v>5</v>
+      </c>
+      <c r="E51" s="11">
+        <v>5</v>
+      </c>
+      <c r="F51" s="18">
+        <v>2</v>
+      </c>
+      <c r="G51" s="17">
+        <v>2</v>
+      </c>
+      <c r="H51" s="17">
+        <v>2</v>
+      </c>
+      <c r="I51" s="17">
+        <v>2</v>
+      </c>
+      <c r="J51" s="18">
+        <v>7</v>
+      </c>
+      <c r="K51" s="17">
+        <v>7</v>
+      </c>
+      <c r="L51" s="17">
+        <v>7</v>
+      </c>
+      <c r="M51" s="17">
+        <v>7</v>
+      </c>
+      <c r="N51" s="18">
+        <v>3</v>
+      </c>
+      <c r="O51" s="17">
+        <v>3</v>
+      </c>
+      <c r="P51" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q51" s="17">
+        <v>3</v>
+      </c>
+      <c r="R51" s="18">
+        <v>4</v>
+      </c>
+      <c r="S51" s="17">
+        <v>4</v>
+      </c>
+      <c r="T51" s="17">
+        <v>4</v>
+      </c>
+      <c r="U51" s="17">
+        <v>4</v>
+      </c>
+      <c r="V51" s="31">
+        <v>7</v>
+      </c>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="22"/>
+      <c r="C52" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D52" s="18">
+        <v>4</v>
+      </c>
+      <c r="E52" s="5">
+        <v>4</v>
+      </c>
+      <c r="F52" s="21">
+        <v>4</v>
+      </c>
+      <c r="G52" s="17">
+        <v>4</v>
+      </c>
+      <c r="H52" s="28">
+        <v>5</v>
+      </c>
+      <c r="I52" s="21">
+        <v>5</v>
+      </c>
+      <c r="J52" s="17">
+        <v>5</v>
+      </c>
+      <c r="K52" s="28">
+        <v>4</v>
+      </c>
+      <c r="L52" s="21">
+        <v>4</v>
+      </c>
+      <c r="M52" s="17">
+        <v>4</v>
+      </c>
+      <c r="N52" s="21">
+        <v>4</v>
+      </c>
+      <c r="O52" s="28">
+        <v>6</v>
+      </c>
+      <c r="P52" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q52" s="21">
+        <v>6</v>
+      </c>
+      <c r="R52" s="21">
+        <v>6</v>
+      </c>
+      <c r="S52" s="18">
+        <v>5</v>
+      </c>
+      <c r="T52" s="21">
+        <v>5</v>
+      </c>
+      <c r="U52" s="21">
+        <v>5</v>
+      </c>
+      <c r="V52" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="23"/>
+      <c r="C53" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D53" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E53" s="18">
+        <v>3</v>
+      </c>
+      <c r="F53" s="21">
+        <v>3</v>
+      </c>
+      <c r="G53" s="21">
+        <v>3</v>
+      </c>
+      <c r="H53" s="17">
+        <v>3</v>
+      </c>
+      <c r="I53" s="28">
+        <v>1</v>
+      </c>
+      <c r="J53" s="21">
+        <v>1</v>
+      </c>
+      <c r="K53" s="17">
+        <v>1</v>
+      </c>
+      <c r="L53" s="28">
+        <v>5</v>
+      </c>
+      <c r="M53" s="21">
+        <v>5</v>
+      </c>
+      <c r="N53" s="17">
+        <v>5</v>
+      </c>
+      <c r="O53" s="21">
+        <v>5</v>
+      </c>
+      <c r="P53" s="28">
+        <v>7</v>
+      </c>
+      <c r="Q53" s="17">
+        <v>7</v>
+      </c>
+      <c r="R53" s="21">
+        <v>7</v>
+      </c>
+      <c r="S53" s="21">
+        <v>7</v>
+      </c>
+      <c r="T53" s="17">
+        <v>7</v>
+      </c>
+      <c r="U53" s="28">
+        <v>3</v>
+      </c>
+      <c r="V53" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="54" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="24"/>
-      <c r="T54" s="24"/>
-      <c r="U54" s="24"/>
-      <c r="V54" s="25"/>
+      <c r="C54" s="8">
+        <v>1</v>
+      </c>
+      <c r="D54" s="8">
+        <v>1</v>
+      </c>
+      <c r="E54" s="8">
+        <v>1</v>
+      </c>
+      <c r="F54" s="24">
+        <v>1</v>
+      </c>
+      <c r="G54" s="24">
+        <v>0</v>
+      </c>
+      <c r="H54" s="24">
+        <v>1</v>
+      </c>
+      <c r="I54" s="24">
+        <v>1</v>
+      </c>
+      <c r="J54" s="24">
+        <v>1</v>
+      </c>
+      <c r="K54" s="24">
+        <v>1</v>
+      </c>
+      <c r="L54" s="24">
+        <v>1</v>
+      </c>
+      <c r="M54" s="24">
+        <v>0</v>
+      </c>
+      <c r="N54" s="24">
+        <v>1</v>
+      </c>
+      <c r="O54" s="24">
+        <v>1</v>
+      </c>
+      <c r="P54" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="24">
+        <v>0</v>
+      </c>
+      <c r="R54" s="24">
+        <v>1</v>
+      </c>
+      <c r="S54" s="24">
+        <v>1</v>
+      </c>
+      <c r="T54" s="24">
+        <v>0</v>
+      </c>
+      <c r="U54" s="24">
+        <v>1</v>
+      </c>
+      <c r="V54" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
@@ -4946,7 +5490,30 @@
       </c>
       <c r="C55">
         <f>SUM(C54:V54)</f>
-        <v>0</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>54</v>
+      </c>
+      <c r="E56">
+        <v>543</v>
+      </c>
+      <c r="F56">
+        <v>432</v>
+      </c>
+      <c r="G56">
+        <v>432</v>
+      </c>
+      <c r="H56">
+        <v>325</v>
+      </c>
+      <c r="I56">
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5094,120 +5661,320 @@
       <c r="B61" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="26"/>
-      <c r="R61" s="26"/>
-      <c r="S61" s="17"/>
-      <c r="T61" s="26"/>
-      <c r="U61" s="26"/>
-      <c r="V61" s="27"/>
+      <c r="C61" s="18">
+        <v>5</v>
+      </c>
+      <c r="D61" s="11">
+        <v>5</v>
+      </c>
+      <c r="E61" s="11">
+        <v>5</v>
+      </c>
+      <c r="F61" s="11">
+        <v>5</v>
+      </c>
+      <c r="G61" s="17">
+        <v>5</v>
+      </c>
+      <c r="H61" s="26">
+        <v>5</v>
+      </c>
+      <c r="I61" s="30">
+        <v>1</v>
+      </c>
+      <c r="J61" s="26">
+        <v>1</v>
+      </c>
+      <c r="K61" s="17">
+        <v>1</v>
+      </c>
+      <c r="L61" s="26">
+        <v>1</v>
+      </c>
+      <c r="M61" s="26">
+        <v>1</v>
+      </c>
+      <c r="N61" s="30">
+        <v>3</v>
+      </c>
+      <c r="O61" s="17">
+        <v>3</v>
+      </c>
+      <c r="P61" s="26">
+        <v>3</v>
+      </c>
+      <c r="Q61" s="26">
+        <v>3</v>
+      </c>
+      <c r="R61" s="26">
+        <v>3</v>
+      </c>
+      <c r="S61" s="18">
+        <v>5</v>
+      </c>
+      <c r="T61" s="26">
+        <v>5</v>
+      </c>
+      <c r="U61" s="26">
+        <v>5</v>
+      </c>
+      <c r="V61" s="27">
+        <v>5</v>
+      </c>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="21"/>
-      <c r="T62" s="17"/>
-      <c r="U62" s="21"/>
-      <c r="V62" s="23"/>
+      <c r="C62" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D62" s="18">
+        <v>4</v>
+      </c>
+      <c r="E62" s="5">
+        <v>4</v>
+      </c>
+      <c r="F62" s="5">
+        <v>4</v>
+      </c>
+      <c r="G62" s="21">
+        <v>4</v>
+      </c>
+      <c r="H62" s="17">
+        <v>4</v>
+      </c>
+      <c r="I62" s="21">
+        <v>4</v>
+      </c>
+      <c r="J62" s="28">
+        <v>7</v>
+      </c>
+      <c r="K62" s="21">
+        <v>7</v>
+      </c>
+      <c r="L62" s="17">
+        <v>7</v>
+      </c>
+      <c r="M62" s="21">
+        <v>7</v>
+      </c>
+      <c r="N62" s="21">
+        <v>7</v>
+      </c>
+      <c r="O62" s="28">
+        <v>6</v>
+      </c>
+      <c r="P62" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q62" s="21">
+        <v>6</v>
+      </c>
+      <c r="R62" s="21">
+        <v>6</v>
+      </c>
+      <c r="S62" s="21">
+        <v>6</v>
+      </c>
+      <c r="T62" s="17">
+        <v>6</v>
+      </c>
+      <c r="U62" s="28">
+        <v>3</v>
+      </c>
+      <c r="V62" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="21"/>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="21"/>
-      <c r="T63" s="21"/>
-      <c r="U63" s="17"/>
-      <c r="V63" s="23"/>
+      <c r="C63" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D63" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E63" s="18">
+        <v>3</v>
+      </c>
+      <c r="F63" s="5">
+        <v>3</v>
+      </c>
+      <c r="G63" s="21">
+        <v>3</v>
+      </c>
+      <c r="H63" s="21">
+        <v>3</v>
+      </c>
+      <c r="I63" s="17">
+        <v>3</v>
+      </c>
+      <c r="J63" s="21">
+        <v>3</v>
+      </c>
+      <c r="K63" s="28">
+        <v>4</v>
+      </c>
+      <c r="L63" s="21">
+        <v>4</v>
+      </c>
+      <c r="M63" s="17">
+        <v>4</v>
+      </c>
+      <c r="N63" s="21">
+        <v>4</v>
+      </c>
+      <c r="O63" s="21">
+        <v>4</v>
+      </c>
+      <c r="P63" s="28">
+        <v>7</v>
+      </c>
+      <c r="Q63" s="17">
+        <v>7</v>
+      </c>
+      <c r="R63" s="21">
+        <v>7</v>
+      </c>
+      <c r="S63" s="21">
+        <v>7</v>
+      </c>
+      <c r="T63" s="21">
+        <v>7</v>
+      </c>
+      <c r="U63" s="17">
+        <v>7</v>
+      </c>
+      <c r="V63" s="23">
+        <v>7</v>
+      </c>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="21"/>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="21"/>
-      <c r="T64" s="21"/>
-      <c r="U64" s="21"/>
-      <c r="V64" s="17"/>
+      <c r="C64" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D64" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E64" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F64" s="18">
+        <v>2</v>
+      </c>
+      <c r="G64" s="21">
+        <v>2</v>
+      </c>
+      <c r="H64" s="21">
+        <v>2</v>
+      </c>
+      <c r="I64" s="21">
+        <v>2</v>
+      </c>
+      <c r="J64" s="17">
+        <v>2</v>
+      </c>
+      <c r="K64" s="21">
+        <v>2</v>
+      </c>
+      <c r="L64" s="28">
+        <v>5</v>
+      </c>
+      <c r="M64" s="21">
+        <v>5</v>
+      </c>
+      <c r="N64" s="17">
+        <v>5</v>
+      </c>
+      <c r="O64" s="21">
+        <v>5</v>
+      </c>
+      <c r="P64" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q64" s="21">
+        <v>5</v>
+      </c>
+      <c r="R64" s="18">
+        <v>4</v>
+      </c>
+      <c r="S64" s="21">
+        <v>4</v>
+      </c>
+      <c r="T64" s="21">
+        <v>4</v>
+      </c>
+      <c r="U64" s="21">
+        <v>4</v>
+      </c>
+      <c r="V64" s="17">
+        <v>4</v>
+      </c>
     </row>
     <row r="65" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="9"/>
+      <c r="C65" s="8">
+        <v>1</v>
+      </c>
+      <c r="D65" s="8">
+        <v>1</v>
+      </c>
+      <c r="E65" s="8">
+        <v>1</v>
+      </c>
+      <c r="F65" s="8">
+        <v>1</v>
+      </c>
+      <c r="G65" s="8">
+        <v>0</v>
+      </c>
+      <c r="H65" s="8">
+        <v>0</v>
+      </c>
+      <c r="I65" s="8">
+        <v>1</v>
+      </c>
+      <c r="J65" s="8">
+        <v>1</v>
+      </c>
+      <c r="K65" s="8">
+        <v>1</v>
+      </c>
+      <c r="L65" s="8">
+        <v>1</v>
+      </c>
+      <c r="M65" s="8">
+        <v>0</v>
+      </c>
+      <c r="N65" s="8">
+        <v>1</v>
+      </c>
+      <c r="O65" s="8">
+        <v>1</v>
+      </c>
+      <c r="P65" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="8">
+        <v>0</v>
+      </c>
+      <c r="R65" s="8">
+        <v>1</v>
+      </c>
+      <c r="S65" s="8">
+        <v>1</v>
+      </c>
+      <c r="T65" s="8">
+        <v>0</v>
+      </c>
+      <c r="U65" s="8">
+        <v>1</v>
+      </c>
+      <c r="V65" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
@@ -5215,7 +5982,7 @@
       </c>
       <c r="C66">
         <f>SUM(C65:V65)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6097,16 +6864,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>